--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -1100,7 +1100,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="H19" t="n">
         <v>136</v>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -1712,7 +1712,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -2072,7 +2072,7 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -2699,7 +2699,7 @@
         <v>26</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
         <v>18</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -3368,7 +3368,7 @@
         <v>81</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>1</v>
@@ -3380,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H87" t="n">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H88" t="n">
         <v>101</v>
@@ -4139,7 +4139,7 @@
         <v>4</v>
       </c>
       <c r="H103" t="n">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>23</v>
       </c>
       <c r="H107" t="n">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>29</v>
       </c>
       <c r="H149" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>17</v>
       </c>
       <c r="H154" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>157</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
@@ -7700,7 +7700,7 @@
         <v>1</v>
       </c>
       <c r="G202" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H202" t="n">
         <v>71</v>
@@ -7991,7 +7991,7 @@
         <v>15</v>
       </c>
       <c r="H210" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="I210" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1691,11 +1691,11 @@
         <v>16</v>
       </c>
       <c r="H35" t="n">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1820,7 +1820,7 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2036,7 +2036,7 @@
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -2048,14 +2048,14 @@
         <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H45" t="n">
         <v>127</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2108,7 +2108,7 @@
         <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2699,11 +2699,11 @@
         <v>26</v>
       </c>
       <c r="H63" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2915,11 +2915,11 @@
         <v>18</v>
       </c>
       <c r="H69" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3380,14 +3380,14 @@
         <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3563,11 +3563,11 @@
         <v>19</v>
       </c>
       <c r="H87" t="n">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4139,11 +4139,11 @@
         <v>4</v>
       </c>
       <c r="H103" t="n">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4283,11 +4283,11 @@
         <v>23</v>
       </c>
       <c r="H107" t="n">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4787,11 +4787,11 @@
         <v>30</v>
       </c>
       <c r="H121" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5543,11 +5543,11 @@
         <v>5</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5687,11 +5687,11 @@
         <v>10</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5723,11 +5723,11 @@
         <v>15</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5903,11 +5903,11 @@
         <v>31</v>
       </c>
       <c r="H152" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5975,11 +5975,11 @@
         <v>17</v>
       </c>
       <c r="H154" t="n">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6068,7 +6068,7 @@
         <v>157</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
@@ -6080,14 +6080,14 @@
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7700,19 +7700,19 @@
         <v>1</v>
       </c>
       <c r="G202" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H202" t="n">
         <v>71</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7991,11 +7991,11 @@
         <v>15</v>
       </c>
       <c r="H210" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8783,11 +8783,11 @@
         <v>18</v>
       </c>
       <c r="H232" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>27-05-2022</t>
+          <t>28-05-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -1511,7 +1511,7 @@
         <v>13</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H49" t="n">
         <v>110</v>
@@ -3560,10 +3560,10 @@
         <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H87" t="n">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>5</v>
       </c>
       <c r="H142" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>10</v>
       </c>
       <c r="H146" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>17</v>
       </c>
       <c r="H154" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>18</v>
       </c>
       <c r="H232" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1511,11 +1511,11 @@
         <v>13</v>
       </c>
       <c r="H30" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1691,11 +1691,11 @@
         <v>16</v>
       </c>
       <c r="H35" t="n">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3563,11 +3563,11 @@
         <v>20</v>
       </c>
       <c r="H87" t="n">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3599,11 +3599,11 @@
         <v>2</v>
       </c>
       <c r="H88" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4211,11 +4211,11 @@
         <v>3</v>
       </c>
       <c r="H105" t="n">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5543,11 +5543,11 @@
         <v>5</v>
       </c>
       <c r="H142" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5687,11 +5687,11 @@
         <v>10</v>
       </c>
       <c r="H146" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5795,11 +5795,11 @@
         <v>29</v>
       </c>
       <c r="H149" t="n">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5939,11 +5939,11 @@
         <v>77</v>
       </c>
       <c r="H153" t="n">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5975,11 +5975,11 @@
         <v>17</v>
       </c>
       <c r="H154" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8783,11 +8783,11 @@
         <v>18</v>
       </c>
       <c r="H232" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>28-05-2022</t>
+          <t>29-05-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -2048,7 +2048,7 @@
         <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H45" t="n">
         <v>127</v>
@@ -3275,7 +3275,7 @@
         <v>22</v>
       </c>
       <c r="H79" t="n">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>5</v>
       </c>
       <c r="H142" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>3</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>146</v>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D146" t="n">
         <v>1</v>
@@ -5708,7 +5708,7 @@
         <v>147</v>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D147" t="n">
         <v>1</v>
@@ -5723,7 +5723,7 @@
         <v>15</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>29</v>
       </c>
       <c r="H149" t="n">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2915,11 +2915,11 @@
         <v>18</v>
       </c>
       <c r="H69" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3275,11 +3275,11 @@
         <v>22</v>
       </c>
       <c r="H79" t="n">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3383,11 +3383,11 @@
         <v>23</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3491,11 +3491,11 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3527,11 +3527,11 @@
         <v>39</v>
       </c>
       <c r="H86" t="n">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3563,11 +3563,11 @@
         <v>20</v>
       </c>
       <c r="H87" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3599,11 +3599,11 @@
         <v>2</v>
       </c>
       <c r="H88" t="n">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5615,11 +5615,11 @@
         <v>3</v>
       </c>
       <c r="H144" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5723,16 +5723,16 @@
         <v>15</v>
       </c>
       <c r="H147" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5795,11 +5795,11 @@
         <v>29</v>
       </c>
       <c r="H149" t="n">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9035,11 +9035,11 @@
         <v>16</v>
       </c>
       <c r="H239" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9215,16 +9215,16 @@
         <v>40</v>
       </c>
       <c r="H244" t="n">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -9251,11 +9251,11 @@
         <v>21</v>
       </c>
       <c r="H245" t="n">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>29-05-2022</t>
+          <t>30-05-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2072,7 +2072,7 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3275,11 +3275,11 @@
         <v>22</v>
       </c>
       <c r="H79" t="n">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3491,11 +3491,11 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5288,14 +5288,14 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H135" t="n">
         <v>1</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5579,11 +5579,11 @@
         <v>5</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5615,11 +5615,11 @@
         <v>3</v>
       </c>
       <c r="H144" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5723,11 +5723,11 @@
         <v>15</v>
       </c>
       <c r="H147" t="n">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7919,11 +7919,11 @@
         <v>15</v>
       </c>
       <c r="H208" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8783,11 +8783,11 @@
         <v>18</v>
       </c>
       <c r="H232" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>30-05-2022</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -611,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="H5" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -647,7 +647,7 @@
         <v>50</v>
       </c>
       <c r="H6" t="n">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>47</v>
       </c>
       <c r="H7" t="n">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>38</v>
       </c>
       <c r="H10" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
         <v>137</v>
@@ -971,7 +971,7 @@
         <v>53</v>
       </c>
       <c r="H15" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>61</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>14</v>
       </c>
       <c r="H17" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1079,7 +1079,7 @@
         <v>23</v>
       </c>
       <c r="H18" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>29</v>
       </c>
       <c r="H19" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>27</v>
       </c>
       <c r="H20" t="n">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>27</v>
       </c>
       <c r="H21" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>19</v>
       </c>
       <c r="H25" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1361,13 +1361,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>12</v>
       </c>
       <c r="H26" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>34</v>
       </c>
       <c r="H28" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>26</v>
       </c>
       <c r="H29" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>5</v>
       </c>
       <c r="H32" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>47</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -2087,7 +2087,7 @@
         <v>30</v>
       </c>
       <c r="H46" t="n">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>51</v>
       </c>
       <c r="H58" t="n">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>25</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>24</v>
       </c>
       <c r="H70" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>37</v>
       </c>
       <c r="H73" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>16</v>
       </c>
       <c r="H74" t="n">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>17</v>
       </c>
       <c r="H76" t="n">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -3347,7 +3347,7 @@
         <v>23</v>
       </c>
       <c r="H81" t="n">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
         <v>36</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>6</v>
       </c>
       <c r="H84" t="n">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>2</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="H85" t="n">
         <v>101</v>
@@ -3779,7 +3779,7 @@
         <v>20</v>
       </c>
       <c r="H93" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>32</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -4319,7 +4319,7 @@
         <v>32</v>
       </c>
       <c r="H108" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>49</v>
       </c>
       <c r="H150" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>31</v>
       </c>
       <c r="H152" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>23</v>
       </c>
       <c r="H163" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>60</v>
       </c>
       <c r="H170" t="n">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         <v>67</v>
       </c>
       <c r="H173" t="n">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>34</v>
       </c>
       <c r="H175" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>16</v>
       </c>
       <c r="H180" t="n">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>35</v>
       </c>
       <c r="H181" t="n">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>31</v>
       </c>
       <c r="H183" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>19</v>
       </c>
       <c r="H204" t="n">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="I204" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>17</v>
       </c>
       <c r="H209" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I209" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>69</v>
       </c>
       <c r="H224" t="n">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="I224" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         <v>15</v>
       </c>
       <c r="H225" t="n">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="I225" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>20</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I229" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>40</v>
       </c>
       <c r="H244" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I244" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>43</v>
       </c>
       <c r="H250" t="n">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="I250" t="inlineStr">
         <is>

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -596,7 +596,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -620,7 +620,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -908,7 +908,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -992,7 +992,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -1928,7 +1928,7 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
@@ -2072,7 +2072,7 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -2468,7 +2468,7 @@
         <v>56</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -2504,7 +2504,7 @@
         <v>57</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>1</v>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -2648,7 +2648,7 @@
         <v>61</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
         <v>65</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>1</v>
@@ -3080,7 +3080,7 @@
         <v>73</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>1</v>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -3152,7 +3152,7 @@
         <v>75</v>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>1</v>
@@ -3224,7 +3224,7 @@
         <v>77</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
         <v>1</v>
@@ -3404,7 +3404,7 @@
         <v>82</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -3548,7 +3548,7 @@
         <v>86</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>1</v>
@@ -3572,7 +3572,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -3584,7 +3584,7 @@
         <v>87</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
@@ -3800,7 +3800,7 @@
         <v>93</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>1</v>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -3836,7 +3836,7 @@
         <v>94</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>1</v>
@@ -3860,7 +3860,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -4484,7 +4484,7 @@
         <v>112</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D113" t="n">
         <v>1</v>
@@ -4508,7 +4508,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -4664,7 +4664,7 @@
         <v>117</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D118" t="n">
         <v>1</v>
@@ -4688,7 +4688,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -4772,7 +4772,7 @@
         <v>120</v>
       </c>
       <c r="C121" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D121" t="n">
         <v>1</v>
@@ -5024,7 +5024,7 @@
         <v>127</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D128" t="n">
         <v>1</v>
@@ -5048,7 +5048,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -5708,7 +5708,7 @@
         <v>147</v>
       </c>
       <c r="C147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D147" t="n">
         <v>1</v>
@@ -5780,7 +5780,7 @@
         <v>149</v>
       </c>
       <c r="C149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D149" t="n">
         <v>1</v>
@@ -5996,7 +5996,7 @@
         <v>155</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D155" t="n">
         <v>1</v>
@@ -6248,7 +6248,7 @@
         <v>162</v>
       </c>
       <c r="C162" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D162" t="n">
         <v>1</v>
@@ -6464,7 +6464,7 @@
         <v>168</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D168" t="n">
         <v>1</v>
@@ -6488,7 +6488,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -7724,7 +7724,7 @@
         <v>203</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D203" t="n">
         <v>1</v>
@@ -8048,7 +8048,7 @@
         <v>212</v>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D212" t="n">
         <v>1</v>
@@ -8072,7 +8072,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -8156,7 +8156,7 @@
         <v>215</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D215" t="n">
         <v>1</v>
@@ -8192,7 +8192,7 @@
         <v>216</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D216" t="n">
         <v>1</v>
@@ -8216,7 +8216,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -8228,7 +8228,7 @@
         <v>217</v>
       </c>
       <c r="C217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D217" t="n">
         <v>1</v>
@@ -8252,7 +8252,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -8444,7 +8444,7 @@
         <v>223</v>
       </c>
       <c r="C223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D223" t="n">
         <v>2</v>
@@ -8516,7 +8516,7 @@
         <v>225</v>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D225" t="n">
         <v>1</v>
@@ -8540,7 +8540,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -8660,7 +8660,7 @@
         <v>229</v>
       </c>
       <c r="C229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D229" t="n">
         <v>0</v>
@@ -8804,7 +8804,7 @@
         <v>233</v>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D233" t="n">
         <v>1</v>
@@ -8828,7 +8828,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -9092,7 +9092,7 @@
         <v>241</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D241" t="n">
         <v>1</v>
@@ -9200,7 +9200,7 @@
         <v>244</v>
       </c>
       <c r="C244" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D244" t="n">
         <v>1</v>
@@ -9416,7 +9416,7 @@
         <v>250</v>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D250" t="n">
         <v>1</v>
@@ -9440,7 +9440,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -572,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" t="n">
         <v>57</v>
@@ -932,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H14" t="n">
         <v>137</v>
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H18" t="n">
         <v>115</v>
@@ -1511,7 +1511,7 @@
         <v>13</v>
       </c>
       <c r="H30" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>18</v>
       </c>
       <c r="H69" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H86" t="n">
         <v>153</v>
@@ -4205,7 +4205,7 @@
         <v>2</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -4283,7 +4283,7 @@
         <v>23</v>
       </c>
       <c r="H107" t="n">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>18</v>
       </c>
       <c r="H232" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -932,14 +932,14 @@
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H14" t="n">
         <v>137</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -968,14 +968,14 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H15" t="n">
         <v>107</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1511,11 +1511,11 @@
         <v>13</v>
       </c>
       <c r="H30" t="n">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1571,7 +1571,7 @@
         <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1679,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2084,14 +2084,14 @@
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H46" t="n">
         <v>114</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2915,11 +2915,11 @@
         <v>18</v>
       </c>
       <c r="H69" t="n">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4025,7 +4025,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
         <v>8</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4097,7 +4097,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
         <v>3</v>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4133,7 +4133,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103" t="n">
         <v>4</v>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4169,7 +4169,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104" t="n">
         <v>5</v>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4241,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
         <v>7</v>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4283,11 +4283,11 @@
         <v>23</v>
       </c>
       <c r="H107" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4787,11 +4787,11 @@
         <v>30</v>
       </c>
       <c r="H121" t="n">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5357,7 +5357,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137" t="n">
         <v>23</v>
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5465,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G140" t="n">
         <v>23</v>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5612,14 +5612,14 @@
         <v>1</v>
       </c>
       <c r="G144" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H144" t="n">
         <v>61</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5795,11 +5795,11 @@
         <v>29</v>
       </c>
       <c r="H149" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8120,7 +8120,7 @@
         <v>214</v>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214" t="n">
         <v>1</v>
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -1511,7 +1511,7 @@
         <v>13</v>
       </c>
       <c r="H30" t="n">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>18</v>
       </c>
       <c r="H69" t="n">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>90</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>1</v>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -4787,7 +4787,7 @@
         <v>30</v>
       </c>
       <c r="H121" t="n">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>5</v>
       </c>
       <c r="H142" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>5</v>
       </c>
       <c r="H144" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>10</v>
       </c>
       <c r="H146" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>48</v>
       </c>
       <c r="H151" t="n">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
@@ -6143,13 +6143,13 @@
         <v>3</v>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159" t="n">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G159" t="n">
         <v>34</v>
@@ -8783,7 +8783,7 @@
         <v>18</v>
       </c>
       <c r="H232" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -932,14 +932,14 @@
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H14" t="n">
         <v>137</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -968,14 +968,14 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H15" t="n">
         <v>107</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4787,11 +4787,11 @@
         <v>30</v>
       </c>
       <c r="H121" t="n">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4823,11 +4823,11 @@
         <v>27</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5003,11 +5003,11 @@
         <v>45</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5543,11 +5543,11 @@
         <v>5</v>
       </c>
       <c r="H142" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5579,11 +5579,11 @@
         <v>5</v>
       </c>
       <c r="H143" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5687,11 +5687,11 @@
         <v>10</v>
       </c>
       <c r="H146" t="n">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8411,7 +8411,7 @@
         <v>3</v>
       </c>
       <c r="D222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E222" t="n">
         <v>1</v>
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8783,11 +8783,11 @@
         <v>18</v>
       </c>
       <c r="H232" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>02-06-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -1640,7 +1640,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
         <v>61</v>
@@ -5003,7 +5003,7 @@
         <v>45</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>1</v>
       </c>
       <c r="G201" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H201" t="n">
         <v>29</v>

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -932,14 +932,14 @@
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H14" t="n">
         <v>137</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1136,7 +1136,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1652,14 +1652,14 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H34" t="n">
         <v>61</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4823,11 +4823,11 @@
         <v>27</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4895,11 +4895,11 @@
         <v>6</v>
       </c>
       <c r="H124" t="n">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5003,11 +5003,11 @@
         <v>45</v>
       </c>
       <c r="H127" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5285,17 +5285,17 @@
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H135" t="n">
         <v>1</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5543,11 +5543,11 @@
         <v>5</v>
       </c>
       <c r="H142" t="n">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5579,11 +5579,11 @@
         <v>5</v>
       </c>
       <c r="H143" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5615,11 +5615,11 @@
         <v>5</v>
       </c>
       <c r="H144" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5795,11 +5795,11 @@
         <v>29</v>
       </c>
       <c r="H149" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6071,13 +6071,13 @@
         <v>2</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G157" t="n">
         <v>51</v>
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9176,14 +9176,14 @@
         <v>1</v>
       </c>
       <c r="G243" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H243" t="n">
         <v>50</v>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>02-06-2022</t>
+          <t>03-06-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -1655,7 +1655,7 @@
         <v>7</v>
       </c>
       <c r="H34" t="n">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
@@ -5615,7 +5615,7 @@
         <v>5</v>
       </c>
       <c r="H144" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>213</v>
       </c>
       <c r="C213" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D213" t="n">
         <v>1</v>

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1043,11 +1043,11 @@
         <v>14</v>
       </c>
       <c r="H17" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1352,7 +1352,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1757,7 +1757,7 @@
         <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
         <v>47</v>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1793,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
         <v>9</v>
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
         <v>21</v>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1865,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
         <v>90</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1901,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
         <v>31</v>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1937,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
         <v>39</v>
@@ -1947,12 +1947,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -1973,7 +1973,7 @@
         <v>2</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
         <v>19</v>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3596,14 +3596,14 @@
         <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H88" t="n">
         <v>119</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4823,16 +4823,16 @@
         <v>27</v>
       </c>
       <c r="H122" t="n">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -4844,7 +4844,7 @@
         <v>122</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123" t="n">
         <v>1</v>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4892,14 +4892,14 @@
         <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H124" t="n">
         <v>71</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4916,7 +4916,7 @@
         <v>124</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D125" t="n">
         <v>1</v>
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4961,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G126" t="n">
         <v>9</v>
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5003,16 +5003,16 @@
         <v>45</v>
       </c>
       <c r="H127" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5579,11 +5579,11 @@
         <v>5</v>
       </c>
       <c r="H143" t="n">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5615,11 +5615,11 @@
         <v>5</v>
       </c>
       <c r="H144" t="n">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5831,11 +5831,11 @@
         <v>49</v>
       </c>
       <c r="H150" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>03-06-2022</t>
+          <t>04-06-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -4931,7 +4931,7 @@
         <v>10</v>
       </c>
       <c r="H125" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4823,11 +4823,11 @@
         <v>27</v>
       </c>
       <c r="H122" t="n">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4931,11 +4931,11 @@
         <v>10</v>
       </c>
       <c r="H125" t="n">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>04-06-2022</t>
+          <t>05-06-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -4823,7 +4823,7 @@
         <v>27</v>
       </c>
       <c r="H122" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1652,14 +1652,14 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H34" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4823,11 +4823,11 @@
         <v>27</v>
       </c>
       <c r="H122" t="n">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5003,11 +5003,11 @@
         <v>45</v>
       </c>
       <c r="H127" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5288,14 +5288,14 @@
         <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H135" t="n">
         <v>1</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5723,11 +5723,11 @@
         <v>15</v>
       </c>
       <c r="H147" t="n">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>05-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -1655,7 +1655,7 @@
         <v>8</v>
       </c>
       <c r="H34" t="n">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -3224,7 +3224,7 @@
         <v>77</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>1</v>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -3767,7 +3767,7 @@
         <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
         <v>1</v>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -4952,7 +4952,7 @@
         <v>125</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D126" t="n">
         <v>1</v>
@@ -4961,13 +4961,13 @@
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>33</v>
       </c>
       <c r="H247" t="n">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="I247" t="inlineStr">
         <is>
@@ -9344,10 +9344,10 @@
         <v>248</v>
       </c>
       <c r="C248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E248" t="n">
         <v>1</v>
@@ -9359,7 +9359,7 @@
         <v>8</v>
       </c>
       <c r="H248" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I248" t="inlineStr">
         <is>

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1640,7 +1640,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1652,14 +1652,14 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H34" t="n">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1796,19 +1796,19 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H38" t="n">
         <v>68</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4844,7 +4844,7 @@
         <v>122</v>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D123" t="n">
         <v>1</v>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4892,14 +4892,14 @@
         <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H124" t="n">
         <v>71</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4964,14 +4964,14 @@
         <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H126" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
+          <t>07-06-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -1640,7 +1640,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J252"/>
+  <dimension ref="A1:J253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,11 +503,11 @@
         <v>46</v>
       </c>
       <c r="H2" t="n">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -539,11 +539,11 @@
         <v>15</v>
       </c>
       <c r="H3" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -575,11 +575,11 @@
         <v>22</v>
       </c>
       <c r="H4" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -644,14 +644,14 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -683,11 +683,11 @@
         <v>47</v>
       </c>
       <c r="H7" t="n">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -719,11 +719,11 @@
         <v>30</v>
       </c>
       <c r="H8" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -755,11 +755,11 @@
         <v>16</v>
       </c>
       <c r="H9" t="n">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -791,11 +791,11 @@
         <v>38</v>
       </c>
       <c r="H10" t="n">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -827,11 +827,11 @@
         <v>48</v>
       </c>
       <c r="H11" t="n">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -851,7 +851,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -860,19 +860,19 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H12" t="n">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -899,11 +899,11 @@
         <v>19</v>
       </c>
       <c r="H13" t="n">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -920,7 +920,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -932,14 +932,14 @@
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H14" t="n">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -962,25 +962,25 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="H15" t="n">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -1007,11 +1007,11 @@
         <v>61</v>
       </c>
       <c r="H16" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1043,11 +1043,11 @@
         <v>14</v>
       </c>
       <c r="H17" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1076,14 +1076,14 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H18" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1112,14 +1112,14 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H19" t="n">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1151,11 +1151,11 @@
         <v>27</v>
       </c>
       <c r="H20" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1184,14 +1184,14 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H21" t="n">
         <v>107</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1223,11 +1223,11 @@
         <v>22</v>
       </c>
       <c r="H22" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1256,14 +1256,14 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H23" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1295,11 +1295,11 @@
         <v>17</v>
       </c>
       <c r="H24" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1328,14 +1328,14 @@
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H25" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
@@ -1367,16 +1367,16 @@
         <v>12</v>
       </c>
       <c r="H26" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -1403,11 +1403,11 @@
         <v>13</v>
       </c>
       <c r="H27" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1424,7 +1424,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -1439,11 +1439,11 @@
         <v>34</v>
       </c>
       <c r="H28" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1475,11 +1475,11 @@
         <v>26</v>
       </c>
       <c r="H29" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1505,22 +1505,22 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>13</v>
       </c>
       <c r="H30" t="n">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -1547,11 +1547,11 @@
         <v>21</v>
       </c>
       <c r="H31" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
@@ -1583,11 +1583,11 @@
         <v>5</v>
       </c>
       <c r="H32" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1616,14 +1616,14 @@
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H33" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1643,7 +1643,7 @@
         <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>1</v>
@@ -1655,11 +1655,11 @@
         <v>9</v>
       </c>
       <c r="H34" t="n">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1682,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
@@ -1695,12 +1695,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -1727,11 +1727,11 @@
         <v>25</v>
       </c>
       <c r="H36" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1754,25 +1754,25 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H37" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -1799,11 +1799,11 @@
         <v>11</v>
       </c>
       <c r="H38" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
@@ -1835,11 +1835,11 @@
         <v>21</v>
       </c>
       <c r="H39" t="n">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>1</v>
@@ -1871,11 +1871,11 @@
         <v>90</v>
       </c>
       <c r="H40" t="n">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1907,11 +1907,11 @@
         <v>31</v>
       </c>
       <c r="H41" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1943,11 +1943,11 @@
         <v>39</v>
       </c>
       <c r="H42" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1970,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
@@ -1979,16 +1979,16 @@
         <v>19</v>
       </c>
       <c r="H43" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -2015,11 +2015,11 @@
         <v>44</v>
       </c>
       <c r="H44" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2051,11 +2051,11 @@
         <v>31</v>
       </c>
       <c r="H45" t="n">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2084,14 +2084,14 @@
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H46" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2123,11 +2123,11 @@
         <v>14</v>
       </c>
       <c r="H47" t="n">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2195,11 +2195,11 @@
         <v>27</v>
       </c>
       <c r="H49" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2252,7 +2252,7 @@
         <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -2267,11 +2267,11 @@
         <v>10</v>
       </c>
       <c r="H51" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2303,11 +2303,11 @@
         <v>14</v>
       </c>
       <c r="H52" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2339,11 +2339,11 @@
         <v>21</v>
       </c>
       <c r="H53" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2375,11 +2375,11 @@
         <v>28</v>
       </c>
       <c r="H54" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2411,11 +2411,11 @@
         <v>19</v>
       </c>
       <c r="H55" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2519,11 +2519,11 @@
         <v>51</v>
       </c>
       <c r="H58" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2540,7 +2540,7 @@
         <v>58</v>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
@@ -2552,14 +2552,14 @@
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H59" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2591,11 +2591,11 @@
         <v>88</v>
       </c>
       <c r="H60" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2624,14 +2624,14 @@
         <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H61" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2648,7 +2648,7 @@
         <v>61</v>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
@@ -2667,12 +2667,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
     </row>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2735,11 +2735,11 @@
         <v>28</v>
       </c>
       <c r="H64" t="n">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2768,14 +2768,14 @@
         <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H65" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2840,14 +2840,14 @@
         <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H67" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2879,11 +2879,11 @@
         <v>14</v>
       </c>
       <c r="H68" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2915,11 +2915,11 @@
         <v>18</v>
       </c>
       <c r="H69" t="n">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2951,11 +2951,11 @@
         <v>24</v>
       </c>
       <c r="H70" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2981,22 +2981,22 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H71" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -3008,7 +3008,7 @@
         <v>71</v>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
         <v>1</v>
@@ -3023,16 +3023,16 @@
         <v>16</v>
       </c>
       <c r="H72" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
     </row>
@@ -3056,14 +3056,14 @@
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H73" t="n">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3095,11 +3095,11 @@
         <v>16</v>
       </c>
       <c r="H74" t="n">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3131,11 +3131,11 @@
         <v>5</v>
       </c>
       <c r="H75" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3164,14 +3164,14 @@
         <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H76" t="n">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3200,14 +3200,14 @@
         <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H77" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3239,11 +3239,11 @@
         <v>15</v>
       </c>
       <c r="H78" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3266,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
         <v>1</v>
@@ -3275,16 +3275,16 @@
         <v>22</v>
       </c>
       <c r="H79" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -3308,14 +3308,14 @@
         <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H80" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3347,11 +3347,11 @@
         <v>23</v>
       </c>
       <c r="H81" t="n">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
         <v>1</v>
@@ -3383,16 +3383,16 @@
         <v>23</v>
       </c>
       <c r="H82" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -3419,11 +3419,11 @@
         <v>36</v>
       </c>
       <c r="H83" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3455,11 +3455,11 @@
         <v>6</v>
       </c>
       <c r="H84" t="n">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
         <v>2</v>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3527,11 +3527,11 @@
         <v>40</v>
       </c>
       <c r="H86" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3560,14 +3560,14 @@
         <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H87" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3599,11 +3599,11 @@
         <v>6</v>
       </c>
       <c r="H88" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3635,11 +3635,11 @@
         <v>32</v>
       </c>
       <c r="H89" t="n">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3671,11 +3671,11 @@
         <v>15</v>
       </c>
       <c r="H90" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3707,11 +3707,11 @@
         <v>16</v>
       </c>
       <c r="H91" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3740,14 +3740,14 @@
         <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H92" t="n">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3779,11 +3779,11 @@
         <v>20</v>
       </c>
       <c r="H93" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3815,11 +3815,11 @@
         <v>24</v>
       </c>
       <c r="H94" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3851,11 +3851,11 @@
         <v>21</v>
       </c>
       <c r="H95" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3887,11 +3887,11 @@
         <v>32</v>
       </c>
       <c r="H96" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3923,11 +3923,11 @@
         <v>25</v>
       </c>
       <c r="H97" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3959,11 +3959,11 @@
         <v>14</v>
       </c>
       <c r="H98" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3995,11 +3995,11 @@
         <v>21</v>
       </c>
       <c r="H99" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4019,7 +4019,7 @@
         <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
         <v>1</v>
@@ -4031,11 +4031,11 @@
         <v>8</v>
       </c>
       <c r="H100" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4067,11 +4067,11 @@
         <v>2</v>
       </c>
       <c r="H101" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4100,14 +4100,14 @@
         <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H102" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4139,11 +4139,11 @@
         <v>4</v>
       </c>
       <c r="H103" t="n">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4175,11 +4175,11 @@
         <v>5</v>
       </c>
       <c r="H104" t="n">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4202,7 +4202,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F105" t="n">
         <v>1</v>
@@ -4211,11 +4211,11 @@
         <v>3</v>
       </c>
       <c r="H105" t="n">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4244,14 +4244,14 @@
         <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H106" t="n">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4283,11 +4283,11 @@
         <v>23</v>
       </c>
       <c r="H107" t="n">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4319,11 +4319,11 @@
         <v>32</v>
       </c>
       <c r="H108" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4355,11 +4355,11 @@
         <v>9</v>
       </c>
       <c r="H109" t="n">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4391,11 +4391,11 @@
         <v>16</v>
       </c>
       <c r="H110" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4427,11 +4427,11 @@
         <v>20</v>
       </c>
       <c r="H111" t="n">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4496,14 +4496,14 @@
         <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H113" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4526,7 +4526,7 @@
         <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
         <v>1</v>
@@ -4535,16 +4535,16 @@
         <v>22</v>
       </c>
       <c r="H114" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -4571,11 +4571,11 @@
         <v>22</v>
       </c>
       <c r="H115" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4607,11 +4607,11 @@
         <v>72</v>
       </c>
       <c r="H116" t="n">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4643,11 +4643,11 @@
         <v>30</v>
       </c>
       <c r="H117" t="n">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4679,11 +4679,11 @@
         <v>38</v>
       </c>
       <c r="H118" t="n">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4715,11 +4715,11 @@
         <v>24</v>
       </c>
       <c r="H119" t="n">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4748,14 +4748,14 @@
         <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H120" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4787,11 +4787,11 @@
         <v>30</v>
       </c>
       <c r="H121" t="n">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4808,7 +4808,7 @@
         <v>121</v>
       </c>
       <c r="C122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D122" t="n">
         <v>1</v>
@@ -4823,16 +4823,16 @@
         <v>27</v>
       </c>
       <c r="H122" t="n">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
     </row>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4886,25 +4886,25 @@
         <v>1</v>
       </c>
       <c r="E124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
         <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H124" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -4931,11 +4931,11 @@
         <v>10</v>
       </c>
       <c r="H125" t="n">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4952,26 +4952,26 @@
         <v>125</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D126" t="n">
         <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
         <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H126" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -4991,7 +4991,7 @@
         <v>2</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
         <v>1</v>
@@ -5007,12 +5007,12 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
     </row>
@@ -5039,11 +5039,11 @@
         <v>26</v>
       </c>
       <c r="H128" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5075,11 +5075,11 @@
         <v>11</v>
       </c>
       <c r="H129" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5108,14 +5108,14 @@
         <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H130" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5144,14 +5144,14 @@
         <v>1</v>
       </c>
       <c r="G131" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H131" t="n">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5183,11 +5183,11 @@
         <v>28</v>
       </c>
       <c r="H132" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5219,11 +5219,11 @@
         <v>25</v>
       </c>
       <c r="H133" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5255,11 +5255,11 @@
         <v>35</v>
       </c>
       <c r="H134" t="n">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5282,20 +5282,20 @@
         <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F135" t="n">
         <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H135" t="n">
         <v>1</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5324,14 +5324,14 @@
         <v>1</v>
       </c>
       <c r="G136" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5396,14 +5396,14 @@
         <v>1</v>
       </c>
       <c r="G138" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H138" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5462,20 +5462,20 @@
         <v>1</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F140" t="n">
         <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H140" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5543,11 +5543,11 @@
         <v>5</v>
       </c>
       <c r="H142" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5597,10 +5597,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D144" t="n">
         <v>1</v>
@@ -5609,17 +5609,17 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5633,7 +5633,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C145" t="n">
         <v>2</v>
@@ -5648,19 +5648,19 @@
         <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H145" t="n">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
     </row>
@@ -5669,7 +5669,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C146" t="n">
         <v>2</v>
@@ -5684,19 +5684,19 @@
         <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H146" t="n">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -5705,10 +5705,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D147" t="n">
         <v>1</v>
@@ -5720,19 +5720,19 @@
         <v>1</v>
       </c>
       <c r="G147" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H147" t="n">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
     </row>
@@ -5741,7 +5741,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C148" t="n">
         <v>2</v>
@@ -5756,14 +5756,14 @@
         <v>1</v>
       </c>
       <c r="G148" t="n">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="H148" t="n">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5777,10 +5777,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D149" t="n">
         <v>1</v>
@@ -5792,14 +5792,14 @@
         <v>1</v>
       </c>
       <c r="G149" t="n">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="H149" t="n">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5813,10 +5813,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C150" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D150" t="n">
         <v>1</v>
@@ -5828,14 +5828,14 @@
         <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H150" t="n">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5849,10 +5849,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C151" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D151" t="n">
         <v>1</v>
@@ -5864,14 +5864,14 @@
         <v>1</v>
       </c>
       <c r="G151" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H151" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5885,10 +5885,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C152" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D152" t="n">
         <v>1</v>
@@ -5900,14 +5900,14 @@
         <v>1</v>
       </c>
       <c r="G152" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H152" t="n">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5921,10 +5921,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D153" t="n">
         <v>1</v>
@@ -5936,14 +5936,14 @@
         <v>1</v>
       </c>
       <c r="G153" t="n">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="H153" t="n">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5957,10 +5957,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C154" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D154" t="n">
         <v>1</v>
@@ -5972,14 +5972,14 @@
         <v>1</v>
       </c>
       <c r="G154" t="n">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="H154" t="n">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -5993,10 +5993,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C155" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D155" t="n">
         <v>1</v>
@@ -6008,14 +6008,14 @@
         <v>1</v>
       </c>
       <c r="G155" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6029,10 +6029,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C156" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D156" t="n">
         <v>1</v>
@@ -6044,14 +6044,14 @@
         <v>1</v>
       </c>
       <c r="G156" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6065,29 +6065,29 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C157" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D157" t="n">
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157" t="n">
         <v>1</v>
       </c>
       <c r="G157" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6101,7 +6101,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C158" t="n">
         <v>2</v>
@@ -6116,14 +6116,14 @@
         <v>1</v>
       </c>
       <c r="G158" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6137,10 +6137,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D159" t="n">
         <v>1</v>
@@ -6152,14 +6152,14 @@
         <v>1</v>
       </c>
       <c r="G159" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6173,10 +6173,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D160" t="n">
         <v>1</v>
@@ -6188,14 +6188,14 @@
         <v>1</v>
       </c>
       <c r="G160" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6209,7 +6209,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C161" t="n">
         <v>2</v>
@@ -6224,14 +6224,14 @@
         <v>1</v>
       </c>
       <c r="G161" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6245,29 +6245,29 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C162" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D162" t="n">
         <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F162" t="n">
         <v>1</v>
       </c>
       <c r="G162" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H162" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6281,10 +6281,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C163" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D163" t="n">
         <v>1</v>
@@ -6296,14 +6296,14 @@
         <v>1</v>
       </c>
       <c r="G163" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H163" t="n">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6317,7 +6317,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C164" t="n">
         <v>2</v>
@@ -6332,14 +6332,14 @@
         <v>1</v>
       </c>
       <c r="G164" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H164" t="n">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6353,16 +6353,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C165" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D165" t="n">
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F165" t="n">
         <v>1</v>
@@ -6371,16 +6371,16 @@
         <v>41</v>
       </c>
       <c r="H165" t="n">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
     </row>
@@ -6389,7 +6389,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C166" t="n">
         <v>3</v>
@@ -6398,25 +6398,25 @@
         <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F166" t="n">
         <v>1</v>
       </c>
       <c r="G166" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H166" t="n">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -6425,34 +6425,34 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C167" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D167" t="n">
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F167" t="n">
         <v>1</v>
       </c>
       <c r="G167" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H167" t="n">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C168" t="n">
         <v>2</v>
@@ -6476,14 +6476,14 @@
         <v>1</v>
       </c>
       <c r="G168" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H168" t="n">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6497,10 +6497,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C169" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D169" t="n">
         <v>1</v>
@@ -6512,14 +6512,14 @@
         <v>1</v>
       </c>
       <c r="G169" t="n">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="H169" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6533,10 +6533,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C170" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D170" t="n">
         <v>1</v>
@@ -6548,14 +6548,14 @@
         <v>1</v>
       </c>
       <c r="G170" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H170" t="n">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6569,10 +6569,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C171" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D171" t="n">
         <v>1</v>
@@ -6584,14 +6584,14 @@
         <v>1</v>
       </c>
       <c r="G171" t="n">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="H171" t="n">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6605,10 +6605,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C172" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D172" t="n">
         <v>1</v>
@@ -6620,14 +6620,14 @@
         <v>1</v>
       </c>
       <c r="G172" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="H172" t="n">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6641,7 +6641,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C173" t="n">
         <v>6</v>
@@ -6653,22 +6653,22 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G173" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="H173" t="n">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -6677,10 +6677,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C174" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D174" t="n">
         <v>1</v>
@@ -6689,22 +6689,22 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G174" t="n">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H174" t="n">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
     </row>
@@ -6713,10 +6713,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C175" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D175" t="n">
         <v>1</v>
@@ -6725,22 +6725,22 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H175" t="n">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
     </row>
@@ -6749,10 +6749,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D176" t="n">
         <v>1</v>
@@ -6764,19 +6764,19 @@
         <v>1</v>
       </c>
       <c r="G176" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H176" t="n">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -6785,10 +6785,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D177" t="n">
         <v>1</v>
@@ -6800,19 +6800,19 @@
         <v>1</v>
       </c>
       <c r="G177" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="H177" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
     </row>
@@ -6821,10 +6821,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D178" t="n">
         <v>1</v>
@@ -6836,19 +6836,19 @@
         <v>1</v>
       </c>
       <c r="G178" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H178" t="n">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -6857,10 +6857,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179" t="n">
         <v>1</v>
@@ -6872,19 +6872,19 @@
         <v>1</v>
       </c>
       <c r="G179" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="H179" t="n">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
     </row>
@@ -6893,7 +6893,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C180" t="n">
         <v>2</v>
@@ -6908,14 +6908,14 @@
         <v>1</v>
       </c>
       <c r="G180" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H180" t="n">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6929,7 +6929,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C181" t="n">
         <v>2</v>
@@ -6944,14 +6944,14 @@
         <v>1</v>
       </c>
       <c r="G181" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="H181" t="n">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6965,7 +6965,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C182" t="n">
         <v>2</v>
@@ -6977,22 +6977,22 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G182" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="H182" t="n">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -7001,10 +7001,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D183" t="n">
         <v>1</v>
@@ -7013,22 +7013,22 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G183" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="H183" t="n">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
     </row>
@@ -7037,10 +7037,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C184" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D184" t="n">
         <v>1</v>
@@ -7052,14 +7052,14 @@
         <v>1</v>
       </c>
       <c r="G184" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H184" t="n">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7073,10 +7073,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D185" t="n">
         <v>1</v>
@@ -7088,14 +7088,14 @@
         <v>1</v>
       </c>
       <c r="G185" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H185" t="n">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7109,10 +7109,10 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C186" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D186" t="n">
         <v>1</v>
@@ -7124,14 +7124,14 @@
         <v>1</v>
       </c>
       <c r="G186" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="H186" t="n">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7145,7 +7145,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C187" t="n">
         <v>2</v>
@@ -7160,14 +7160,14 @@
         <v>1</v>
       </c>
       <c r="G187" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H187" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7181,7 +7181,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C188" t="n">
         <v>2</v>
@@ -7196,14 +7196,14 @@
         <v>1</v>
       </c>
       <c r="G188" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H188" t="n">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7217,7 +7217,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C189" t="n">
         <v>2</v>
@@ -7232,14 +7232,14 @@
         <v>1</v>
       </c>
       <c r="G189" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="H189" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7253,7 +7253,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C190" t="n">
         <v>2</v>
@@ -7268,19 +7268,19 @@
         <v>1</v>
       </c>
       <c r="G190" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H190" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -7289,29 +7289,29 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D191" t="n">
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191" t="n">
         <v>1</v>
       </c>
       <c r="G191" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7325,7 +7325,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C192" t="n">
         <v>1</v>
@@ -7337,17 +7337,17 @@
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7361,7 +7361,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C193" t="n">
         <v>2</v>
@@ -7370,20 +7370,20 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H193" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7397,10 +7397,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D194" t="n">
         <v>1</v>
@@ -7412,14 +7412,14 @@
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7433,10 +7433,10 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D195" t="n">
         <v>1</v>
@@ -7448,14 +7448,14 @@
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H195" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7469,10 +7469,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D196" t="n">
         <v>1</v>
@@ -7481,17 +7481,17 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7505,10 +7505,10 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C197" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D197" t="n">
         <v>1</v>
@@ -7520,14 +7520,14 @@
         <v>1</v>
       </c>
       <c r="G197" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H197" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7541,7 +7541,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C198" t="n">
         <v>2</v>
@@ -7556,19 +7556,19 @@
         <v>1</v>
       </c>
       <c r="G198" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H198" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
     </row>
@@ -7577,7 +7577,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C199" t="n">
         <v>2</v>
@@ -7592,14 +7592,14 @@
         <v>1</v>
       </c>
       <c r="G199" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H199" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7613,7 +7613,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C200" t="n">
         <v>2</v>
@@ -7628,19 +7628,19 @@
         <v>1</v>
       </c>
       <c r="G200" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H200" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -7649,7 +7649,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C201" t="n">
         <v>2</v>
@@ -7664,14 +7664,14 @@
         <v>1</v>
       </c>
       <c r="G201" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H201" t="n">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7685,10 +7685,10 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C202" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D202" t="n">
         <v>1</v>
@@ -7700,19 +7700,19 @@
         <v>1</v>
       </c>
       <c r="G202" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H202" t="n">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
     </row>
@@ -7721,10 +7721,10 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C203" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D203" t="n">
         <v>1</v>
@@ -7736,19 +7736,19 @@
         <v>1</v>
       </c>
       <c r="G203" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H203" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -7757,7 +7757,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C204" t="n">
         <v>2</v>
@@ -7772,19 +7772,19 @@
         <v>1</v>
       </c>
       <c r="G204" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H204" t="n">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
     </row>
@@ -7793,10 +7793,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D205" t="n">
         <v>1</v>
@@ -7808,14 +7808,14 @@
         <v>1</v>
       </c>
       <c r="G205" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H205" t="n">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7829,10 +7829,10 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C206" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D206" t="n">
         <v>1</v>
@@ -7844,14 +7844,14 @@
         <v>1</v>
       </c>
       <c r="G206" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H206" t="n">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7865,7 +7865,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C207" t="n">
         <v>2</v>
@@ -7874,25 +7874,25 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
         <v>1</v>
       </c>
       <c r="G207" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H207" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -7901,10 +7901,10 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C208" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D208" t="n">
         <v>1</v>
@@ -7916,14 +7916,14 @@
         <v>1</v>
       </c>
       <c r="G208" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H208" t="n">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7937,10 +7937,10 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C209" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D209" t="n">
         <v>1</v>
@@ -7952,14 +7952,14 @@
         <v>1</v>
       </c>
       <c r="G209" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H209" t="n">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7973,10 +7973,10 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C210" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D210" t="n">
         <v>1</v>
@@ -7988,14 +7988,14 @@
         <v>1</v>
       </c>
       <c r="G210" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H210" t="n">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8009,7 +8009,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C211" t="n">
         <v>2</v>
@@ -8024,14 +8024,14 @@
         <v>1</v>
       </c>
       <c r="G211" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="H211" t="n">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8045,10 +8045,10 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D212" t="n">
         <v>1</v>
@@ -8060,14 +8060,14 @@
         <v>1</v>
       </c>
       <c r="G212" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H212" t="n">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8081,10 +8081,10 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C213" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D213" t="n">
         <v>1</v>
@@ -8096,14 +8096,14 @@
         <v>1</v>
       </c>
       <c r="G213" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H213" t="n">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8117,10 +8117,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C214" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D214" t="n">
         <v>1</v>
@@ -8132,19 +8132,19 @@
         <v>1</v>
       </c>
       <c r="G214" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -8153,10 +8153,10 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D215" t="n">
         <v>1</v>
@@ -8168,14 +8168,14 @@
         <v>1</v>
       </c>
       <c r="G215" t="n">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8189,10 +8189,10 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C216" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D216" t="n">
         <v>1</v>
@@ -8207,16 +8207,16 @@
         <v>60</v>
       </c>
       <c r="H216" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
     </row>
@@ -8225,10 +8225,10 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C217" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D217" t="n">
         <v>1</v>
@@ -8240,14 +8240,14 @@
         <v>1</v>
       </c>
       <c r="G217" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="H217" t="n">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8261,34 +8261,34 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D218" t="n">
         <v>1</v>
       </c>
       <c r="E218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F218" t="n">
         <v>1</v>
       </c>
       <c r="G218" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H218" t="n">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -8297,29 +8297,29 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C219" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D219" t="n">
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F219" t="n">
         <v>1</v>
       </c>
       <c r="G219" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H219" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8333,10 +8333,10 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D220" t="n">
         <v>1</v>
@@ -8348,19 +8348,19 @@
         <v>1</v>
       </c>
       <c r="G220" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H220" t="n">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
     </row>
@@ -8369,10 +8369,10 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C221" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D221" t="n">
         <v>1</v>
@@ -8384,19 +8384,19 @@
         <v>1</v>
       </c>
       <c r="G221" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H221" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -8405,10 +8405,10 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D222" t="n">
         <v>1</v>
@@ -8417,17 +8417,17 @@
         <v>1</v>
       </c>
       <c r="F222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G222" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H222" t="n">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8441,13 +8441,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C223" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E223" t="n">
         <v>1</v>
@@ -8456,14 +8456,14 @@
         <v>1</v>
       </c>
       <c r="G223" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="H223" t="n">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8477,13 +8477,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C224" t="n">
         <v>2</v>
       </c>
       <c r="D224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E224" t="n">
         <v>1</v>
@@ -8492,19 +8492,19 @@
         <v>1</v>
       </c>
       <c r="G224" t="n">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="H224" t="n">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
     </row>
@@ -8513,7 +8513,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C225" t="n">
         <v>2</v>
@@ -8528,14 +8528,14 @@
         <v>1</v>
       </c>
       <c r="G225" t="n">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="H225" t="n">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8549,7 +8549,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C226" t="n">
         <v>2</v>
@@ -8564,14 +8564,14 @@
         <v>1</v>
       </c>
       <c r="G226" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="H226" t="n">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8585,10 +8585,10 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D227" t="n">
         <v>1</v>
@@ -8600,19 +8600,19 @@
         <v>1</v>
       </c>
       <c r="G227" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="H227" t="n">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -8621,10 +8621,10 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D228" t="n">
         <v>1</v>
@@ -8636,19 +8636,19 @@
         <v>1</v>
       </c>
       <c r="G228" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H228" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
     </row>
@@ -8657,13 +8657,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C229" t="n">
         <v>2</v>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E229" t="n">
         <v>1</v>
@@ -8672,19 +8672,19 @@
         <v>1</v>
       </c>
       <c r="G229" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H229" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -8693,10 +8693,10 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D230" t="n">
         <v>1</v>
@@ -8708,19 +8708,19 @@
         <v>1</v>
       </c>
       <c r="G230" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H230" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -8729,10 +8729,10 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D231" t="n">
         <v>1</v>
@@ -8744,19 +8744,19 @@
         <v>1</v>
       </c>
       <c r="G231" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="H231" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
     </row>
@@ -8765,7 +8765,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C232" t="n">
         <v>2</v>
@@ -8774,25 +8774,25 @@
         <v>1</v>
       </c>
       <c r="E232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232" t="n">
         <v>1</v>
       </c>
       <c r="G232" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H232" t="n">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -8801,7 +8801,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C233" t="n">
         <v>2</v>
@@ -8816,14 +8816,14 @@
         <v>1</v>
       </c>
       <c r="G233" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H233" t="n">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8837,34 +8837,34 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C234" t="n">
         <v>2</v>
       </c>
       <c r="D234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234" t="n">
         <v>1</v>
       </c>
       <c r="G234" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H234" t="n">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -8873,7 +8873,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C235" t="n">
         <v>2</v>
@@ -8888,19 +8888,19 @@
         <v>1</v>
       </c>
       <c r="G235" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H235" t="n">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
     </row>
@@ -8909,7 +8909,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C236" t="n">
         <v>2</v>
@@ -8924,14 +8924,14 @@
         <v>1</v>
       </c>
       <c r="G236" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H236" t="n">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8945,7 +8945,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C237" t="n">
         <v>2</v>
@@ -8960,14 +8960,14 @@
         <v>1</v>
       </c>
       <c r="G237" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H237" t="n">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -8981,10 +8981,10 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D238" t="n">
         <v>1</v>
@@ -8996,19 +8996,19 @@
         <v>1</v>
       </c>
       <c r="G238" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="H238" t="n">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -9017,7 +9017,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C239" t="n">
         <v>1</v>
@@ -9032,14 +9032,14 @@
         <v>1</v>
       </c>
       <c r="G239" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="H239" t="n">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9053,10 +9053,10 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D240" t="n">
         <v>1</v>
@@ -9068,19 +9068,19 @@
         <v>1</v>
       </c>
       <c r="G240" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="H240" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
     </row>
@@ -9089,10 +9089,10 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D241" t="n">
         <v>1</v>
@@ -9104,19 +9104,19 @@
         <v>1</v>
       </c>
       <c r="G241" t="n">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="H241" t="n">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -9125,29 +9125,29 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C242" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G242" t="n">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9161,34 +9161,34 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C243" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H243" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
     </row>
@@ -9197,10 +9197,10 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D244" t="n">
         <v>1</v>
@@ -9212,14 +9212,14 @@
         <v>1</v>
       </c>
       <c r="G244" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H244" t="n">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9233,34 +9233,34 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C245" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D245" t="n">
         <v>1</v>
       </c>
       <c r="E245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245" t="n">
         <v>1</v>
       </c>
       <c r="G245" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H245" t="n">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -9269,7 +9269,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C246" t="n">
         <v>2</v>
@@ -9284,14 +9284,14 @@
         <v>1</v>
       </c>
       <c r="G246" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H246" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9305,10 +9305,10 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C247" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D247" t="n">
         <v>1</v>
@@ -9320,14 +9320,14 @@
         <v>1</v>
       </c>
       <c r="G247" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="H247" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9341,10 +9341,10 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C248" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D248" t="n">
         <v>1</v>
@@ -9356,19 +9356,19 @@
         <v>1</v>
       </c>
       <c r="G248" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H248" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -9377,10 +9377,10 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C249" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D249" t="n">
         <v>1</v>
@@ -9392,19 +9392,19 @@
         <v>1</v>
       </c>
       <c r="G249" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H249" t="n">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
     </row>
@@ -9413,7 +9413,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C250" t="n">
         <v>3</v>
@@ -9428,14 +9428,14 @@
         <v>1</v>
       </c>
       <c r="G250" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="H250" t="n">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9449,10 +9449,10 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C251" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D251" t="n">
         <v>1</v>
@@ -9464,14 +9464,14 @@
         <v>1</v>
       </c>
       <c r="G251" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H251" t="n">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>07-06-2022</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9485,32 +9485,68 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
+        <v>251</v>
+      </c>
+      <c r="C252" t="n">
+        <v>5</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1</v>
+      </c>
+      <c r="F252" t="n">
+        <v>1</v>
+      </c>
+      <c r="G252" t="n">
+        <v>52</v>
+      </c>
+      <c r="H252" t="n">
+        <v>113</v>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>10-06-2022</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>Completado</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
         <v>252</v>
       </c>
-      <c r="C252" t="n">
-        <v>1</v>
-      </c>
-      <c r="D252" t="n">
-        <v>1</v>
-      </c>
-      <c r="E252" t="n">
-        <v>1</v>
-      </c>
-      <c r="F252" t="n">
-        <v>1</v>
-      </c>
-      <c r="G252" t="n">
+      <c r="C253" t="n">
+        <v>1</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1</v>
+      </c>
+      <c r="E253" t="n">
+        <v>1</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1</v>
+      </c>
+      <c r="G253" t="n">
         <v>22</v>
       </c>
-      <c r="H252" t="n">
-        <v>56</v>
-      </c>
-      <c r="I252" t="inlineStr">
-        <is>
-          <t>07-06-2022</t>
-        </is>
-      </c>
-      <c r="J252" t="inlineStr">
+      <c r="H253" t="n">
+        <v>52</v>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>10-06-2022</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
         <is>
           <t>En proceso</t>
         </is>

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -5600,7 +5600,7 @@
         <v>143</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144" t="n">
         <v>1</v>
@@ -5612,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H243" t="n">
         <v>1</v>

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -2513,13 +2513,13 @@
         <v>30</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I66" t="s">
         <v>9</v>
       </c>
       <c r="J66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2673,7 +2673,7 @@
         <v>17</v>
       </c>
       <c r="H71">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="I71" t="s">
         <v>9</v>
@@ -3665,7 +3665,7 @@
         <v>2</v>
       </c>
       <c r="H102">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="I102" t="s">
         <v>9</v>
@@ -3985,7 +3985,7 @@
         <v>9</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="I112" t="s">
         <v>9</v>
@@ -4337,13 +4337,13 @@
         <v>12</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="I123" t="s">
         <v>9</v>
       </c>
       <c r="J123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -5393,13 +5393,13 @@
         <v>41</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="I156" t="s">
         <v>9</v>
       </c>
       <c r="J156" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -5425,13 +5425,13 @@
         <v>50</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="I157" t="s">
         <v>9</v>
       </c>
       <c r="J157" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -5457,13 +5457,13 @@
         <v>51</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="I158" t="s">
         <v>9</v>
       </c>
       <c r="J158" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -5489,13 +5489,13 @@
         <v>28</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I159" t="s">
         <v>9</v>
       </c>
       <c r="J159" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -5521,13 +5521,13 @@
         <v>33</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="I160" t="s">
         <v>9</v>
       </c>
       <c r="J160" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -5553,13 +5553,13 @@
         <v>21</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I161" t="s">
         <v>9</v>
       </c>
       <c r="J161" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -5585,13 +5585,13 @@
         <v>32</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="I162" t="s">
         <v>9</v>
       </c>
       <c r="J162" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -7281,13 +7281,13 @@
         <v>19</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I215" t="s">
         <v>9</v>
       </c>
       <c r="J215" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -7313,13 +7313,13 @@
         <v>60</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="I216" t="s">
         <v>9</v>
       </c>
       <c r="J216" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217" spans="1:10">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7334,7 +7334,7 @@
         <v>1</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192" t="n">
         <v>1</v>
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7406,10 +7406,10 @@
         <v>1</v>
       </c>
       <c r="E194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G194" t="n">
         <v>25</v>
@@ -7419,12 +7419,12 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -7436,16 +7436,16 @@
         <v>194</v>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195" t="n">
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G195" t="n">
         <v>16</v>
@@ -7455,7 +7455,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9176,14 +9176,14 @@
         <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H243" t="n">
         <v>1</v>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>11-06-2022</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -1646,10 +1646,10 @@
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
         <v>9</v>
@@ -5615,7 +5615,7 @@
         <v>2</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>191</v>
       </c>
       <c r="C192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D192" t="n">
         <v>1</v>
@@ -7343,7 +7343,7 @@
         <v>13</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
@@ -9281,7 +9281,7 @@
         <v>1</v>
       </c>
       <c r="F246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G246" t="n">
         <v>21</v>
@@ -9296,7 +9296,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Completado</t>
+          <t>En proceso</t>
         </is>
       </c>
     </row>

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5615,11 +5615,11 @@
         <v>2</v>
       </c>
       <c r="H144" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7343,11 +7343,11 @@
         <v>13</v>
       </c>
       <c r="H192" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>11-06-2022</t>
+          <t>12-06-2022</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -7343,7 +7343,7 @@
         <v>13</v>
       </c>
       <c r="H192" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H243" t="n">
         <v>1</v>

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5615,11 +5615,11 @@
         <v>2</v>
       </c>
       <c r="H144" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7451,11 +7451,11 @@
         <v>16</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>12-06-2022</t>
+          <t>13-06-2022</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -5795,7 +5795,7 @@
         <v>94</v>
       </c>
       <c r="H149" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>16</v>
       </c>
       <c r="H195" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -8888,7 +8888,7 @@
         <v>1</v>
       </c>
       <c r="G235" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H235" t="n">
         <v>114</v>
@@ -8900,7 +8900,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -575,11 +575,11 @@
         <v>22</v>
       </c>
       <c r="H4" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7451,11 +7451,11 @@
         <v>16</v>
       </c>
       <c r="H195" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8888,14 +8888,14 @@
         <v>1</v>
       </c>
       <c r="G235" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H235" t="n">
         <v>114</v>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>14-06-2022</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -631,7 +631,7 @@
         <v>9</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -663,7 +663,7 @@
         <v>9</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -855,7 +855,7 @@
         <v>9</v>
       </c>
       <c r="J14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -951,7 +951,7 @@
         <v>9</v>
       </c>
       <c r="J17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1655,7 +1655,7 @@
         <v>9</v>
       </c>
       <c r="J39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1815,7 +1815,7 @@
         <v>9</v>
       </c>
       <c r="J44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1847,7 +1847,7 @@
         <v>9</v>
       </c>
       <c r="J45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1911,7 +1911,7 @@
         <v>9</v>
       </c>
       <c r="J47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2007,7 +2007,7 @@
         <v>9</v>
       </c>
       <c r="J50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2391,7 +2391,7 @@
         <v>9</v>
       </c>
       <c r="J62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2551,7 +2551,7 @@
         <v>9</v>
       </c>
       <c r="J67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2711,7 +2711,7 @@
         <v>9</v>
       </c>
       <c r="J72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2871,7 +2871,7 @@
         <v>9</v>
       </c>
       <c r="J77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3127,7 +3127,7 @@
         <v>9</v>
       </c>
       <c r="J85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -4311,7 +4311,7 @@
         <v>9</v>
       </c>
       <c r="J122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -4535,7 +4535,7 @@
         <v>9</v>
       </c>
       <c r="J129" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -4631,7 +4631,7 @@
         <v>9</v>
       </c>
       <c r="J132" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -4695,7 +4695,7 @@
         <v>9</v>
       </c>
       <c r="J134" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -4727,7 +4727,7 @@
         <v>9</v>
       </c>
       <c r="J135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -4887,7 +4887,7 @@
         <v>9</v>
       </c>
       <c r="J140" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -4919,7 +4919,7 @@
         <v>9</v>
       </c>
       <c r="J141" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -5623,7 +5623,7 @@
         <v>9</v>
       </c>
       <c r="J163" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -5655,7 +5655,7 @@
         <v>9</v>
       </c>
       <c r="J164" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -5687,7 +5687,7 @@
         <v>9</v>
       </c>
       <c r="J165" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -5751,7 +5751,7 @@
         <v>9</v>
       </c>
       <c r="J167" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -5975,7 +5975,7 @@
         <v>9</v>
       </c>
       <c r="J174" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -6071,7 +6071,7 @@
         <v>9</v>
       </c>
       <c r="J177" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -6135,7 +6135,7 @@
         <v>9</v>
       </c>
       <c r="J179" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -7415,7 +7415,7 @@
         <v>9</v>
       </c>
       <c r="J219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220" spans="1:10">
@@ -7575,7 +7575,7 @@
         <v>9</v>
       </c>
       <c r="J224" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225" spans="1:10">
@@ -8055,7 +8055,7 @@
         <v>9</v>
       </c>
       <c r="J239" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240" spans="1:10">
@@ -8087,7 +8087,7 @@
         <v>9</v>
       </c>
       <c r="J240" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241" spans="1:10">
@@ -8151,7 +8151,7 @@
         <v>9</v>
       </c>
       <c r="J242" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243" spans="1:10">
@@ -8279,7 +8279,7 @@
         <v>9</v>
       </c>
       <c r="J246" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247" spans="1:10">
@@ -8503,7 +8503,7 @@
         <v>9</v>
       </c>
       <c r="J253" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -4964,7 +4964,7 @@
         <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H126" t="n">
         <v>74</v>
@@ -7379,7 +7379,7 @@
         <v>6</v>
       </c>
       <c r="H193" t="n">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4964,19 +4964,19 @@
         <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H126" t="n">
         <v>74</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5609,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144" t="n">
         <v>4</v>
@@ -5619,7 +5619,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7484,14 +7484,14 @@
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H196" t="n">
         <v>52</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8888,14 +8888,14 @@
         <v>1</v>
       </c>
       <c r="G235" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H235" t="n">
         <v>114</v>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9176,14 +9176,14 @@
         <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H243" t="n">
         <v>1</v>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>16-06-2022</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5600,7 +5600,7 @@
         <v>143</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D144" t="n">
         <v>1</v>
@@ -5619,7 +5619,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7376,14 +7376,14 @@
         <v>1</v>
       </c>
       <c r="G193" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H193" t="n">
         <v>59</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -3596,7 +3596,7 @@
         <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H88" t="n">
         <v>119</v>
@@ -5612,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="G144" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H144" t="n">
         <v>48</v>
@@ -5624,7 +5624,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -7472,7 +7472,7 @@
         <v>195</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D196" t="n">
         <v>1</v>

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7472,7 +7472,7 @@
         <v>195</v>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D196" t="n">
         <v>1</v>
@@ -7481,7 +7481,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G196" t="n">
         <v>10</v>
@@ -7491,12 +7491,12 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8888,14 +8888,14 @@
         <v>1</v>
       </c>
       <c r="G235" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H235" t="n">
         <v>114</v>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243" t="n">
         <v>0</v>
@@ -9183,7 +9183,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>17-06-2022</t>
+          <t>18-06-2022</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -7484,7 +7484,7 @@
         <v>1</v>
       </c>
       <c r="G196" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H196" t="n">
         <v>52</v>
@@ -9167,16 +9167,16 @@
         <v>4</v>
       </c>
       <c r="D243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E243" t="n">
         <v>1</v>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G243" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H243" t="n">
         <v>1</v>

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8888,14 +8888,14 @@
         <v>1</v>
       </c>
       <c r="G235" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H235" t="n">
         <v>114</v>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>18-06-2022</t>
+          <t>19-06-2022</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -3596,7 +3596,7 @@
         <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H88" t="n">
         <v>119</v>

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>19-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -7304,7 +7304,7 @@
         <v>1</v>
       </c>
       <c r="G191" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H191" t="n">
         <v>44</v>
@@ -7316,7 +7316,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -7376,7 +7376,7 @@
         <v>1</v>
       </c>
       <c r="G193" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H193" t="n">
         <v>59</v>
@@ -7388,7 +7388,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -7484,7 +7484,7 @@
         <v>1</v>
       </c>
       <c r="G196" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H196" t="n">
         <v>52</v>

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>24-06-2022</t>
+          <t>25-06-2022</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>25-06-2022</t>
+          <t>26-06-2022</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>26-06-2022</t>
+          <t>27-06-2022</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>27-06-2022</t>
+          <t>28-06-2022</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>29-06-2022</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>29-06-2022</t>
+          <t>30-06-2022</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>01-07-2022</t>
+          <t>02-07-2022</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>02-07-2022</t>
+          <t>03-07-2022</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>03-07-2022</t>
+          <t>04-07-2022</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>04-07-2022</t>
+          <t>05-07-2022</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>05-07-2022</t>
+          <t>06-07-2022</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -920,7 +920,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -939,7 +939,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1220,14 +1220,14 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H22" t="n">
         <v>36</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1424,7 +1424,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,12 +1587,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1646,10 +1646,10 @@
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
         <v>9</v>
@@ -1659,12 +1659,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2252,7 +2252,7 @@
         <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,12 +3135,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,12 +3459,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3603,12 +3603,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,12 +4035,12 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -4071,12 +4071,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -4107,12 +4107,12 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -4143,12 +4143,12 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -4179,12 +4179,12 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -4215,12 +4215,12 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -4251,12 +4251,12 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,12 +4467,12 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5547,12 +5547,12 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -5583,12 +5583,12 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -5619,7 +5619,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,12 +5655,12 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -5691,7 +5691,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6725,7 +6725,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175" t="n">
         <v>36</v>
@@ -6735,12 +6735,12 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7508,7 +7508,7 @@
         <v>196</v>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D197" t="n">
         <v>1</v>
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7544,7 +7544,7 @@
         <v>197</v>
       </c>
       <c r="C198" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D198" t="n">
         <v>1</v>
@@ -7563,12 +7563,12 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,12 +7671,12 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -7707,12 +7707,12 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,12 +7779,12 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8228,7 +8228,7 @@
         <v>216</v>
       </c>
       <c r="C217" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D217" t="n">
         <v>1</v>
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,12 +8355,12 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8427,12 +8427,12 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8624,7 +8624,7 @@
         <v>227</v>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D228" t="n">
         <v>1</v>
@@ -8643,12 +8643,12 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9200,7 +9200,7 @@
         <v>243</v>
       </c>
       <c r="C244" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D244" t="n">
         <v>1</v>
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,12 +9399,12 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>Completado</t>
         </is>
       </c>
     </row>
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>06-07-2022</t>
+          <t>07-07-2022</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -9179,11 +9179,11 @@
         <v>21</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>07-07-2022</t>
+          <t>08-07-2022</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">

--- a/data/descargables/InstrumentosCFK.xlsx
+++ b/data/descargables/InstrumentosCFK.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+          <t>09-07-2022</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>08-07-2022</t>
+ 